--- a/Data/Transfermarkt Player Data/Latvia/contract_info.xlsx
+++ b/Data/Transfermarkt Player Data/Latvia/contract_info.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
